--- a/download/monitor_template.xlsx
+++ b/download/monitor_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,42 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>飞飞SKU</t>
   </si>
   <si>
-    <t>天猫链接</t>
+    <t>天猫主链接(主要跟踪的详情页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京东链接</t>
+    <t>天猫追踪链接（追踪的搜索结果页或详情页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A5573016</t>
-  </si>
-  <si>
-    <t>http://detail.tmall.com/item.htm?id=17926739844</t>
-  </si>
-  <si>
-    <t>http://item.jd.com/646202.html</t>
-  </si>
-  <si>
-    <t>B5494360</t>
-  </si>
-  <si>
-    <t>http://detail.tmall.com/item.htm?id=16801282897</t>
-  </si>
-  <si>
-    <t>http://item.jd.com/1031409657.html</t>
-  </si>
-  <si>
-    <t>A4854814</t>
-  </si>
-  <si>
-    <t>http://detail.tmall.com/item.htm?id=21759799663</t>
-  </si>
-  <si>
-    <t>http://item.jd.com/517226.html</t>
+    <t>京东链接（详情页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -398,15 +377,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,38 +401,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/download/monitor_template.xlsx
+++ b/download/monitor_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>飞飞SKU</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>京东链接（详情页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易迅链接（详情页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号店（详情页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊（详情页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -389,9 +401,12 @@
     <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,6 +418,15 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
